--- a/GameTable-Converter/Character.xlsx
+++ b/GameTable-Converter/Character.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="Child" sheetId="2" r:id="rId2"/>
-    <sheet name="ChildChild" sheetId="3" r:id="rId3"/>
+    <sheet name="SkillGroup" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>*root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,141 +49,43 @@
     <t>캐릭터3</t>
   </si>
   <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Character</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Child</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*parent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHA0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHA0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC0002</t>
-  </si>
-  <si>
-    <t>CCC0003</t>
-  </si>
-  <si>
-    <t>CCC0004</t>
-  </si>
-  <si>
-    <t>CCC0005</t>
-  </si>
-  <si>
-    <t>CCC0006</t>
-  </si>
-  <si>
-    <t>CCC0007</t>
-  </si>
-  <si>
-    <t>CCC0008</t>
-  </si>
-  <si>
-    <t>CCC0009</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자식1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자식2</t>
-  </si>
-  <si>
-    <t>캐릭터 자식3</t>
-  </si>
-  <si>
-    <t>캐릭터 자식4</t>
-  </si>
-  <si>
-    <t>캐릭터 자식5</t>
-  </si>
-  <si>
-    <t>캐릭터 자식6</t>
-  </si>
-  <si>
-    <t>캐릭터 자식7</t>
-  </si>
-  <si>
-    <t>캐릭터 자식8</t>
-  </si>
-  <si>
-    <t>캐릭터 자식9</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식4</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식5</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식6</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식7</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식8</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식9</t>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC0009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자식의 자식11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isMonster</t>
+    <t>skillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,11 +457,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -575,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,8 +489,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,8 +500,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,8 +511,8 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -619,323 +523,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <v>1.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/GameTable-Converter/Character.xlsx
+++ b/GameTable-Converter/Character.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="8640" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillGroup" sheetId="4" r:id="rId2"/>
+    <sheet name="SkillGroups" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>*root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,60 +33,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CHA0002</t>
+  </si>
+  <si>
+    <t>CHA0003</t>
+  </si>
+  <si>
+    <t>캐릭터2</t>
+  </si>
+  <si>
+    <t>캐릭터3</t>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>캐릭터1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHA0002</t>
-  </si>
-  <si>
-    <t>CHA0003</t>
-  </si>
-  <si>
-    <t>캐릭터2</t>
-  </si>
-  <si>
-    <t>캐릭터3</t>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKI0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKI0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKI0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>SKI0004</t>
+  </si>
+  <si>
+    <t>SKI0005</t>
+  </si>
+  <si>
+    <t>SKI0006</t>
+  </si>
+  <si>
+    <t>SKI0007</t>
+  </si>
+  <si>
+    <t>SKI0008</t>
+  </si>
+  <si>
+    <t>SKI0009</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,12 +171,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,32 +514,32 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -523,49 +550,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/GameTable-Converter/Character.xlsx
+++ b/GameTable-Converter/Character.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillGroups" sheetId="4" r:id="rId2"/>
+    <sheet name="SkillGroup" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -553,7 +553,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GameTable-Converter/Character.xlsx
+++ b/GameTable-Converter/Character.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangyun\Desktop\GitHub Repository\GAME_TABLE\GameTable-Converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="8640" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="8640" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -191,6 +196,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -238,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,21 +492,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -520,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -531,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -553,20 +559,20 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -574,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -582,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -598,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -606,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -614,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -622,7 +628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -630,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -638,7 +644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
